--- a/test.xlsx
+++ b/test.xlsx
@@ -9,22 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HeliData" sheetId="4" r:id="rId1"/>
-    <sheet name="Mass" sheetId="5" r:id="rId2"/>
-    <sheet name="Foils" sheetId="6" r:id="rId3"/>
-    <sheet name="Twist" sheetId="1" r:id="rId4"/>
-    <sheet name="Cy" sheetId="2" r:id="rId5"/>
-    <sheet name="Cx" sheetId="3" r:id="rId6"/>
+    <sheet name="Foils" sheetId="6" r:id="rId2"/>
+    <sheet name="Twist" sheetId="1" r:id="rId3"/>
+    <sheet name="Mass" sheetId="5" r:id="rId4"/>
+    <sheet name="EI" sheetId="7" state="hidden" r:id="rId5"/>
+    <sheet name="Cy" sheetId="2" state="hidden" r:id="rId6"/>
+    <sheet name="Cx" sheetId="3" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>m0</t>
   </si>
@@ -69,6 +70,12 @@
   </si>
   <si>
     <t>NACA 63012</t>
+  </si>
+  <si>
+    <t>Eix</t>
+  </si>
+  <si>
+    <t>EIX</t>
   </si>
 </sst>
 </file>
@@ -116,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -124,6 +131,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -213,6 +221,261 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="301"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42487199999999986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45843839999999991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4573799999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.40793759999999984</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3659039999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3659039999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3659039999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.43031519999999979</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.37074239999999986</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36287999999999992</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.42638399999999982</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.37799999999999989</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2962.1547443999984</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5331.5761399199992</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5331.5761399199992</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5331.5761399199992</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5331.5761399199992</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5331.5761399199992</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5331.5761399199992</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5331.5761399199992</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5331.5761399199992</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4603.8984974275454</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3381.9492487137768</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2159.9999999999973</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2160</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -858,707 +1121,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:B85"/>
+  <sheetPr codeName="Лист6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.06</v>
-      </c>
-      <c r="B2" s="6">
-        <v>2.1176159999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>9.1819999999999999E-2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>2.2849151999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.12364</v>
-      </c>
-      <c r="B4" s="6">
-        <v>2.2796399999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.15545</v>
-      </c>
-      <c r="B5" s="6">
-        <v>2.0332127999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.18727000000000002</v>
-      </c>
-      <c r="B6" s="6">
-        <v>1.8237119999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.21909000000000001</v>
-      </c>
-      <c r="B7" s="6">
-        <v>1.8237119999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0.25091000000000002</v>
-      </c>
-      <c r="B8" s="6">
-        <v>1.8237119999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.28273000000000004</v>
-      </c>
-      <c r="B9" s="6">
-        <v>2.1447455999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.31455</v>
-      </c>
-      <c r="B10" s="6">
-        <v>1.8478271999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0.34636</v>
-      </c>
-      <c r="B11" s="6">
-        <v>1.80864</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0.37818000000000002</v>
-      </c>
-      <c r="B12" s="6">
-        <v>2.1251519999999995</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0.41000000000000003</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1.8839999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>0.46</v>
-      </c>
-      <c r="B14">
-        <v>5.3819999999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>0.50045454545454549</v>
-      </c>
-      <c r="B15">
-        <v>5.3819999999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>0.54090909090909089</v>
-      </c>
-      <c r="B16">
-        <v>5.172699999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>0.5813636363636363</v>
-      </c>
-      <c r="B17">
-        <v>4.4849999999999994</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>0.62181818181818171</v>
-      </c>
-      <c r="B18">
-        <v>3.8571</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>0.66227272727272712</v>
-      </c>
-      <c r="B19">
-        <v>3.3787000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>0.70272727272727253</v>
-      </c>
-      <c r="B20">
-        <v>2.9601000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>0.74318181818181794</v>
-      </c>
-      <c r="B21">
-        <v>2.6610999999999994</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>0.78363636363636335</v>
-      </c>
-      <c r="B22">
-        <v>2.3919999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>0.82409090909090876</v>
-      </c>
-      <c r="B23">
-        <v>2.2125999999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>0.86454545454545417</v>
-      </c>
-      <c r="B24">
-        <v>2.3321999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="B25">
-        <v>2.0597777777777777</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>0.92274999999999996</v>
-      </c>
-      <c r="B26">
-        <v>1.9933333333333334</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>0.9405</v>
-      </c>
-      <c r="B27">
-        <v>1.9583625730994123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>0.98325000000000007</v>
-      </c>
-      <c r="B28">
-        <v>1.9024093567251434</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1.026</v>
-      </c>
-      <c r="B29">
-        <v>1.8744327485380088</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1.0687500000000001</v>
-      </c>
-      <c r="B30">
-        <v>1.8184795321637399</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1.1115000000000002</v>
-      </c>
-      <c r="B31">
-        <v>1.7905029239766053</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1.1542500000000002</v>
-      </c>
-      <c r="B32">
-        <v>1.7345497076023364</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>1.1970000000000003</v>
-      </c>
-      <c r="B33">
-        <v>1.706573099415202</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>1.2397500000000004</v>
-      </c>
-      <c r="B34">
-        <v>1.6785964912280673</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>1.2825000000000004</v>
-      </c>
-      <c r="B35">
-        <v>1.6506198830409415</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>1.3252500000000005</v>
-      </c>
-      <c r="B36">
-        <v>1.6506198830409329</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>1.3680000000000003</v>
-      </c>
-      <c r="B37">
-        <v>1.6226432748537987</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>1.4107500000000004</v>
-      </c>
-      <c r="B38">
-        <v>1.6226432748537987</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>1.4535000000000005</v>
-      </c>
-      <c r="B39">
-        <v>1.6226432748537987</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>1.4962500000000005</v>
-      </c>
-      <c r="B40">
-        <v>1.6338339181286523</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>1.5390000000000006</v>
-      </c>
-      <c r="B41">
-        <v>1.636631578947366</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>1.5817500000000007</v>
-      </c>
-      <c r="B42">
-        <v>1.6282385964912256</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>1.6245000000000007</v>
-      </c>
-      <c r="B43">
-        <v>1.633833918128661</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>1.6672500000000008</v>
-      </c>
-      <c r="B44">
-        <v>1.9247906432748607</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>1.7100000000000006</v>
-      </c>
-      <c r="B45">
-        <v>2.039494736842113</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>1.7527500000000005</v>
-      </c>
-      <c r="B46">
-        <v>2.1765801169590722</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>1.7955000000000003</v>
-      </c>
-      <c r="B47">
-        <v>2.3276538011695989</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>1.8382500000000002</v>
-      </c>
-      <c r="B48">
-        <v>2.5290853801169546</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>1.881</v>
-      </c>
-      <c r="B49">
-        <v>2.8200421052631683</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>1.9237500000000001</v>
-      </c>
-      <c r="B50">
-        <v>2.8256374269005953</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>1.9664999999999999</v>
-      </c>
-      <c r="B51">
-        <v>2.8284350877193085</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>2.0092499999999998</v>
-      </c>
-      <c r="B52">
-        <v>2.8340304093567354</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>2.0519999999999996</v>
-      </c>
-      <c r="B53">
-        <v>2.8396257309941624</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>2.0947499999999994</v>
-      </c>
-      <c r="B54">
-        <v>2.848018713450303</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>2.1374999999999993</v>
-      </c>
-      <c r="B55">
-        <v>2.848018713450303</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>2.1802499999999991</v>
-      </c>
-      <c r="B56">
-        <v>2.8508163742690167</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>2.222999999999999</v>
-      </c>
-      <c r="B57">
-        <v>2.8564116959064427</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>2.2657499999999988</v>
-      </c>
-      <c r="B58">
-        <v>2.8564116959064427</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>2.3084999999999987</v>
-      </c>
-      <c r="B59">
-        <v>2.8592093567251564</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>2.3512499999999985</v>
-      </c>
-      <c r="B60">
-        <v>2.8592093567251564</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>2.3939999999999984</v>
-      </c>
-      <c r="B61">
-        <v>2.8564116959064427</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>2.4367499999999982</v>
-      </c>
-      <c r="B62">
-        <v>2.8564116959064427</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>2.479499999999998</v>
-      </c>
-      <c r="B63">
-        <v>2.8592093567251564</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>2.5222499999999979</v>
-      </c>
-      <c r="B64">
-        <v>2.8592093567251564</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>2.5649999999999977</v>
-      </c>
-      <c r="B65">
-        <v>2.8592093567251564</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>2.6077499999999976</v>
-      </c>
-      <c r="B66">
-        <v>2.8592093567251564</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>2.6504999999999974</v>
-      </c>
-      <c r="B67">
-        <v>2.8592093567251564</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>2.6932499999999973</v>
-      </c>
-      <c r="B68">
-        <v>2.8592093567251564</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>2.7359999999999971</v>
-      </c>
-      <c r="B69">
-        <v>2.8592093567251564</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>2.7787499999999969</v>
-      </c>
-      <c r="B70">
-        <v>2.8592093567251564</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>2.8214999999999968</v>
-      </c>
-      <c r="B71">
-        <v>2.8592093567251564</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>2.8642499999999966</v>
-      </c>
-      <c r="B72">
-        <v>2.8592093567251564</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>2.9069999999999965</v>
-      </c>
-      <c r="B73">
-        <v>2.8592093567251564</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>2.9497499999999963</v>
-      </c>
-      <c r="B74">
-        <v>2.8592093567251564</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>2.9924999999999962</v>
-      </c>
-      <c r="B75">
-        <v>2.8592093567251564</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>3.035249999999996</v>
-      </c>
-      <c r="B76">
-        <v>2.8592093567251564</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>3.0779999999999959</v>
-      </c>
-      <c r="B77">
-        <v>2.8592093567251564</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>3.1207499999999957</v>
-      </c>
-      <c r="B78">
-        <v>2.8592093567251564</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>3.1634999999999955</v>
-      </c>
-      <c r="B79">
-        <v>2.8592093567251564</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>3.2062499999999954</v>
-      </c>
-      <c r="B80">
-        <v>2.8592093567251564</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>3.2489999999999952</v>
-      </c>
-      <c r="B81">
-        <v>2.8592093567251564</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>3.2917499999999951</v>
-      </c>
-      <c r="B82">
-        <v>2.8592093567251564</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>3.3344999999999949</v>
-      </c>
-      <c r="B83">
-        <v>2.8592093567251564</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>3.3772499999999948</v>
-      </c>
-      <c r="B84">
-        <v>2.8592093567251458</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>3.4199999999999946</v>
-      </c>
-      <c r="B85">
-        <v>1.4296046783625729</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1607,7 +1173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:B5"/>
@@ -1663,7 +1229,1192 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист2"/>
+  <dimension ref="A1:C85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.06</v>
+      </c>
+      <c r="B2" s="6">
+        <v>2.1176159999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.42487199999999986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>9.1819999999999999E-2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2.2849151999999999</v>
+      </c>
+      <c r="C3">
+        <v>0.45843839999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.12364</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2.2796399999999997</v>
+      </c>
+      <c r="C4">
+        <v>0.4573799999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.15545</v>
+      </c>
+      <c r="B5" s="6">
+        <v>2.0332127999999998</v>
+      </c>
+      <c r="C5">
+        <v>0.40793759999999984</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.18727000000000002</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1.8237119999999998</v>
+      </c>
+      <c r="C6">
+        <v>0.3659039999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.21909000000000001</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1.8237119999999998</v>
+      </c>
+      <c r="C7">
+        <v>0.3659039999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.25091000000000002</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1.8237119999999998</v>
+      </c>
+      <c r="C8">
+        <v>0.3659039999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.28273000000000004</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2.1447455999999998</v>
+      </c>
+      <c r="C9">
+        <v>0.43031519999999979</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.31455</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1.8478271999999998</v>
+      </c>
+      <c r="C10">
+        <v>0.37074239999999986</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.34636</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1.80864</v>
+      </c>
+      <c r="C11">
+        <v>0.36287999999999992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.37818000000000002</v>
+      </c>
+      <c r="B12" s="6">
+        <v>2.1251519999999995</v>
+      </c>
+      <c r="C12">
+        <v>0.42638399999999982</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1.8839999999999999</v>
+      </c>
+      <c r="C13">
+        <v>0.37799999999999989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.46</v>
+      </c>
+      <c r="B14">
+        <v>5.3819999999999997</v>
+      </c>
+      <c r="C14">
+        <v>2962.1547443999984</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.50045454545454549</v>
+      </c>
+      <c r="B15">
+        <v>5.3819999999999997</v>
+      </c>
+      <c r="C15">
+        <v>5331.5761399199992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.54090909090909089</v>
+      </c>
+      <c r="B16">
+        <v>5.172699999999999</v>
+      </c>
+      <c r="C16">
+        <v>5331.5761399199992</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.5813636363636363</v>
+      </c>
+      <c r="B17">
+        <v>4.4849999999999994</v>
+      </c>
+      <c r="C17">
+        <v>5331.5761399199992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.62181818181818171</v>
+      </c>
+      <c r="B18">
+        <v>3.8571</v>
+      </c>
+      <c r="C18">
+        <v>5331.5761399199992</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.66227272727272712</v>
+      </c>
+      <c r="B19">
+        <v>3.3787000000000003</v>
+      </c>
+      <c r="C19">
+        <v>5331.5761399199992</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.70272727272727253</v>
+      </c>
+      <c r="B20">
+        <v>2.9601000000000002</v>
+      </c>
+      <c r="C20">
+        <v>5331.5761399199992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.74318181818181794</v>
+      </c>
+      <c r="B21">
+        <v>2.6610999999999994</v>
+      </c>
+      <c r="C21">
+        <v>5331.5761399199992</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.78363636363636335</v>
+      </c>
+      <c r="B22">
+        <v>2.3919999999999999</v>
+      </c>
+      <c r="C22">
+        <v>5331.5761399199992</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.82409090909090876</v>
+      </c>
+      <c r="B23">
+        <v>2.2125999999999997</v>
+      </c>
+      <c r="C23">
+        <v>4603.8984974275454</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.86454545454545417</v>
+      </c>
+      <c r="B24">
+        <v>2.3321999999999998</v>
+      </c>
+      <c r="C24">
+        <v>3381.9492487137768</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="B25">
+        <v>2.0597777777777777</v>
+      </c>
+      <c r="C25">
+        <v>2159.9999999999973</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.92274999999999996</v>
+      </c>
+      <c r="B26">
+        <v>1.9933333333333334</v>
+      </c>
+      <c r="C26">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.9405</v>
+      </c>
+      <c r="B27">
+        <v>1.9583625730994123</v>
+      </c>
+      <c r="C27">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.98325000000000007</v>
+      </c>
+      <c r="B28">
+        <v>1.9024093567251434</v>
+      </c>
+      <c r="C28">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1.026</v>
+      </c>
+      <c r="B29">
+        <v>1.8744327485380088</v>
+      </c>
+      <c r="C29">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1.0687500000000001</v>
+      </c>
+      <c r="B30">
+        <v>1.8184795321637399</v>
+      </c>
+      <c r="C30">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1.1115000000000002</v>
+      </c>
+      <c r="B31">
+        <v>1.7905029239766053</v>
+      </c>
+      <c r="C31">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1.1542500000000002</v>
+      </c>
+      <c r="B32">
+        <v>1.7345497076023364</v>
+      </c>
+      <c r="C32">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1.1970000000000003</v>
+      </c>
+      <c r="B33">
+        <v>1.706573099415202</v>
+      </c>
+      <c r="C33">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1.2397500000000004</v>
+      </c>
+      <c r="B34">
+        <v>1.6785964912280673</v>
+      </c>
+      <c r="C34">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1.2825000000000004</v>
+      </c>
+      <c r="B35">
+        <v>1.6506198830409415</v>
+      </c>
+      <c r="C35">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1.3252500000000005</v>
+      </c>
+      <c r="B36">
+        <v>1.6506198830409329</v>
+      </c>
+      <c r="C36">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1.3680000000000003</v>
+      </c>
+      <c r="B37">
+        <v>1.6226432748537987</v>
+      </c>
+      <c r="C37">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1.4107500000000004</v>
+      </c>
+      <c r="B38">
+        <v>1.6226432748537987</v>
+      </c>
+      <c r="C38">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1.4535000000000005</v>
+      </c>
+      <c r="B39">
+        <v>1.6226432748537987</v>
+      </c>
+      <c r="C39">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1.4962500000000005</v>
+      </c>
+      <c r="B40">
+        <v>1.6338339181286523</v>
+      </c>
+      <c r="C40">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1.5390000000000006</v>
+      </c>
+      <c r="B41">
+        <v>1.636631578947366</v>
+      </c>
+      <c r="C41">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1.5817500000000007</v>
+      </c>
+      <c r="B42">
+        <v>1.6282385964912256</v>
+      </c>
+      <c r="C42">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1.6245000000000007</v>
+      </c>
+      <c r="B43">
+        <v>1.633833918128661</v>
+      </c>
+      <c r="C43">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1.6672500000000008</v>
+      </c>
+      <c r="B44">
+        <v>1.9247906432748607</v>
+      </c>
+      <c r="C44">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1.7100000000000006</v>
+      </c>
+      <c r="B45">
+        <v>2.039494736842113</v>
+      </c>
+      <c r="C45">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1.7527500000000005</v>
+      </c>
+      <c r="B46">
+        <v>2.1765801169590722</v>
+      </c>
+      <c r="C46">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1.7955000000000003</v>
+      </c>
+      <c r="B47">
+        <v>2.3276538011695989</v>
+      </c>
+      <c r="C47">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1.8382500000000002</v>
+      </c>
+      <c r="B48">
+        <v>2.5290853801169546</v>
+      </c>
+      <c r="C48">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1.881</v>
+      </c>
+      <c r="B49">
+        <v>2.8200421052631683</v>
+      </c>
+      <c r="C49">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1.9237500000000001</v>
+      </c>
+      <c r="B50">
+        <v>2.8256374269005953</v>
+      </c>
+      <c r="C50">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1.9664999999999999</v>
+      </c>
+      <c r="B51">
+        <v>2.8284350877193085</v>
+      </c>
+      <c r="C51">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2.0092499999999998</v>
+      </c>
+      <c r="B52">
+        <v>2.8340304093567354</v>
+      </c>
+      <c r="C52">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2.0519999999999996</v>
+      </c>
+      <c r="B53">
+        <v>2.8396257309941624</v>
+      </c>
+      <c r="C53">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2.0947499999999994</v>
+      </c>
+      <c r="B54">
+        <v>2.848018713450303</v>
+      </c>
+      <c r="C54">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2.1374999999999993</v>
+      </c>
+      <c r="B55">
+        <v>2.848018713450303</v>
+      </c>
+      <c r="C55">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2.1802499999999991</v>
+      </c>
+      <c r="B56">
+        <v>2.8508163742690167</v>
+      </c>
+      <c r="C56">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2.222999999999999</v>
+      </c>
+      <c r="B57">
+        <v>2.8564116959064427</v>
+      </c>
+      <c r="C57">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2.2657499999999988</v>
+      </c>
+      <c r="B58">
+        <v>2.8564116959064427</v>
+      </c>
+      <c r="C58">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2.3084999999999987</v>
+      </c>
+      <c r="B59">
+        <v>2.8592093567251564</v>
+      </c>
+      <c r="C59">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2.3512499999999985</v>
+      </c>
+      <c r="B60">
+        <v>2.8592093567251564</v>
+      </c>
+      <c r="C60">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2.3939999999999984</v>
+      </c>
+      <c r="B61">
+        <v>2.8564116959064427</v>
+      </c>
+      <c r="C61">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2.4367499999999982</v>
+      </c>
+      <c r="B62">
+        <v>2.8564116959064427</v>
+      </c>
+      <c r="C62">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2.479499999999998</v>
+      </c>
+      <c r="B63">
+        <v>2.8592093567251564</v>
+      </c>
+      <c r="C63">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2.5222499999999979</v>
+      </c>
+      <c r="B64">
+        <v>2.8592093567251564</v>
+      </c>
+      <c r="C64">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2.5649999999999977</v>
+      </c>
+      <c r="B65">
+        <v>2.8592093567251564</v>
+      </c>
+      <c r="C65">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2.6077499999999976</v>
+      </c>
+      <c r="B66">
+        <v>2.8592093567251564</v>
+      </c>
+      <c r="C66">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2.6504999999999974</v>
+      </c>
+      <c r="B67">
+        <v>2.8592093567251564</v>
+      </c>
+      <c r="C67">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2.6932499999999973</v>
+      </c>
+      <c r="B68">
+        <v>2.8592093567251564</v>
+      </c>
+      <c r="C68">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2.7359999999999971</v>
+      </c>
+      <c r="B69">
+        <v>2.8592093567251564</v>
+      </c>
+      <c r="C69">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2.7787499999999969</v>
+      </c>
+      <c r="B70">
+        <v>2.8592093567251564</v>
+      </c>
+      <c r="C70">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2.8214999999999968</v>
+      </c>
+      <c r="B71">
+        <v>2.8592093567251564</v>
+      </c>
+      <c r="C71">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2.8642499999999966</v>
+      </c>
+      <c r="B72">
+        <v>2.8592093567251564</v>
+      </c>
+      <c r="C72">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2.9069999999999965</v>
+      </c>
+      <c r="B73">
+        <v>2.8592093567251564</v>
+      </c>
+      <c r="C73">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2.9497499999999963</v>
+      </c>
+      <c r="B74">
+        <v>2.8592093567251564</v>
+      </c>
+      <c r="C74">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2.9924999999999962</v>
+      </c>
+      <c r="B75">
+        <v>2.8592093567251564</v>
+      </c>
+      <c r="C75">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>3.035249999999996</v>
+      </c>
+      <c r="B76">
+        <v>2.8592093567251564</v>
+      </c>
+      <c r="C76">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>3.0779999999999959</v>
+      </c>
+      <c r="B77">
+        <v>2.8592093567251564</v>
+      </c>
+      <c r="C77">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>3.1207499999999957</v>
+      </c>
+      <c r="B78">
+        <v>2.8592093567251564</v>
+      </c>
+      <c r="C78">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>3.1634999999999955</v>
+      </c>
+      <c r="B79">
+        <v>2.8592093567251564</v>
+      </c>
+      <c r="C79">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>3.2062499999999954</v>
+      </c>
+      <c r="B80">
+        <v>2.8592093567251564</v>
+      </c>
+      <c r="C80">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>3.2489999999999952</v>
+      </c>
+      <c r="B81">
+        <v>2.8592093567251564</v>
+      </c>
+      <c r="C81">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>3.2917499999999951</v>
+      </c>
+      <c r="B82">
+        <v>2.8592093567251564</v>
+      </c>
+      <c r="C82">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>3.3344999999999949</v>
+      </c>
+      <c r="B83">
+        <v>2.8592093567251564</v>
+      </c>
+      <c r="C83">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>3.3772499999999948</v>
+      </c>
+      <c r="B84">
+        <v>2.8592093567251458</v>
+      </c>
+      <c r="C84">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>3.4199999999999946</v>
+      </c>
+      <c r="B85">
+        <v>1.4296046783625729</v>
+      </c>
+      <c r="C85">
+        <v>2160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист7"/>
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.06</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.42487199999999986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>9.1819999999999999E-2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.45843839999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.12364</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.4573799999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.15545</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.40793759999999984</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.18727000000000002</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.3659039999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.21909000000000001</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.3659039999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.25091000000000002</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.3659039999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.28273000000000004</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.43031519999999984</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.31455</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.37074239999999992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.34636</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.36287999999999992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.37818000000000002</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.42638399999999987</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0.37799999999999989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.5</v>
+      </c>
+      <c r="B14" s="7">
+        <v>5331.5761399199992</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B15" s="7">
+        <v>5331.5761399199992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.6</v>
+      </c>
+      <c r="B16" s="7">
+        <v>5331.5761399199992</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.7</v>
+      </c>
+      <c r="B17" s="7">
+        <v>5331.5761399199992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.8</v>
+      </c>
+      <c r="B18" s="7">
+        <v>5331.5761399199992</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="B19" s="7">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1.2</v>
+      </c>
+      <c r="B20" s="7">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1.5</v>
+      </c>
+      <c r="B21" s="7">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1.65</v>
+      </c>
+      <c r="B22" s="7">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1.7</v>
+      </c>
+      <c r="B23" s="7">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" s="7">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2.5</v>
+      </c>
+      <c r="B25" s="7">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" s="7">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3.42</v>
+      </c>
+      <c r="B27" s="7">
+        <v>2160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист4"/>
   <dimension ref="A1:U321"/>
@@ -22547,13 +23298,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист5"/>
   <dimension ref="A1:U330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:U330"/>
+      <selection sqref="A1:U321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
